--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW20.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma2F-HW20.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -952,7 +952,7 @@
         <v>0.9949238975122726</v>
       </c>
       <c r="D13">
-        <v>0.9949169638402919</v>
+        <v>0.9949169638402917</v>
       </c>
       <c r="E13">
         <v>0.9943649668699153</v>
@@ -970,10 +970,10 @@
         <v>0.99493714788777</v>
       </c>
       <c r="J13">
-        <v>0.9949169638402919</v>
+        <v>0.9949169638402917</v>
       </c>
       <c r="K13">
-        <v>0.9946409653551036</v>
+        <v>0.9946409653551035</v>
       </c>
       <c r="L13">
         <v>0.9947824314336881</v>
@@ -1062,6 +1062,47 @@
       </c>
       <c r="M15">
         <v>0.9987386966953444</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.18355117195812</v>
+      </c>
+      <c r="D16">
+        <v>0.5960752793557353</v>
+      </c>
+      <c r="E16">
+        <v>1.047915988402299</v>
+      </c>
+      <c r="F16">
+        <v>1.18355117195812</v>
+      </c>
+      <c r="G16">
+        <v>0.7931908076294506</v>
+      </c>
+      <c r="H16">
+        <v>1.124909215325272</v>
+      </c>
+      <c r="I16">
+        <v>1.092202312283082</v>
+      </c>
+      <c r="J16">
+        <v>0.5960752793557353</v>
+      </c>
+      <c r="K16">
+        <v>0.8219956338790171</v>
+      </c>
+      <c r="L16">
+        <v>1.002773402918569</v>
+      </c>
+      <c r="M16">
+        <v>0.9729741291589932</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.18355117195812</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW20.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8039439999999991</v>
+        <v>1.18355117195812</v>
       </c>
       <c r="D10">
-        <v>0.4209960000000003</v>
+        <v>0.5960752793557353</v>
       </c>
       <c r="E10">
-        <v>1.293879999999999</v>
+        <v>1.047915988402299</v>
       </c>
       <c r="F10">
-        <v>0.8039439999999991</v>
+        <v>1.18355117195812</v>
       </c>
       <c r="G10">
-        <v>0.5486320000000005</v>
+        <v>0.7931908076294506</v>
       </c>
       <c r="H10">
-        <v>2.065675999999999</v>
+        <v>1.124909215325272</v>
       </c>
       <c r="I10">
-        <v>1.201939999999998</v>
+        <v>1.092202312283082</v>
       </c>
       <c r="J10">
-        <v>0.4209960000000003</v>
+        <v>0.5960752793557353</v>
       </c>
       <c r="K10">
-        <v>0.8574379999999995</v>
+        <v>0.8219956338790171</v>
       </c>
       <c r="L10">
-        <v>0.8306909999999993</v>
+        <v>1.002773402918569</v>
       </c>
       <c r="M10">
-        <v>1.055844666666666</v>
+        <v>0.9729741291589932</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.65</v>
+        <v>1.109352432680098</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.7372935530304323</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>1.013445883063445</v>
       </c>
       <c r="F11">
-        <v>0.65</v>
+        <v>1.109352432680098</v>
       </c>
       <c r="G11">
-        <v>0.2195875</v>
+        <v>0.9140917390995468</v>
       </c>
       <c r="H11">
-        <v>2.91</v>
+        <v>0.9705272221040968</v>
       </c>
       <c r="I11">
-        <v>1.35</v>
+        <v>1.042395897866687</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.7372935530304323</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.8753697180469387</v>
       </c>
       <c r="L11">
-        <v>0.725</v>
+        <v>0.9923610753635181</v>
       </c>
       <c r="M11">
-        <v>1.121597916666667</v>
+        <v>0.9645177879740511</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8045109870592011</v>
+        <v>1.107420528287933</v>
       </c>
       <c r="D12">
-        <v>0.4685303427072001</v>
+        <v>0.7383581386454428</v>
       </c>
       <c r="E12">
-        <v>1.2889961391104</v>
+        <v>1.013908618270609</v>
       </c>
       <c r="F12">
-        <v>0.8045109870592011</v>
+        <v>1.107420528287933</v>
       </c>
       <c r="G12">
-        <v>0.5439500617728007</v>
+        <v>0.9147400249322111</v>
       </c>
       <c r="H12">
-        <v>2.089979913420804</v>
+        <v>0.9709702401372768</v>
       </c>
       <c r="I12">
-        <v>1.197365059788797</v>
+        <v>1.042070417114944</v>
       </c>
       <c r="J12">
-        <v>0.4685303427072001</v>
+        <v>0.7383581386454428</v>
       </c>
       <c r="K12">
-        <v>0.8787632409088</v>
+        <v>0.8761333784580256</v>
       </c>
       <c r="L12">
-        <v>0.8416371139840005</v>
+        <v>0.9917769533729792</v>
       </c>
       <c r="M12">
-        <v>1.065555417309867</v>
+        <v>0.964577994564736</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9949238975122726</v>
+        <v>1.109339627063266</v>
       </c>
       <c r="D13">
-        <v>0.9949169638402917</v>
+        <v>0.7371847532975258</v>
       </c>
       <c r="E13">
-        <v>0.9943649668699153</v>
+        <v>1.013537641279112</v>
       </c>
       <c r="F13">
-        <v>0.9949238975122726</v>
+        <v>1.109339627063266</v>
       </c>
       <c r="G13">
-        <v>0.9916734764235375</v>
+        <v>0.9141252101395791</v>
       </c>
       <c r="H13">
-        <v>0.9951561430000584</v>
+        <v>0.9702996556195644</v>
       </c>
       <c r="I13">
-        <v>0.99493714788777</v>
+        <v>1.04226144711371</v>
       </c>
       <c r="J13">
-        <v>0.9949169638402917</v>
+        <v>0.7371847532975258</v>
       </c>
       <c r="K13">
-        <v>0.9946409653551035</v>
+        <v>0.8753611972883191</v>
       </c>
       <c r="L13">
-        <v>0.9947824314336881</v>
+        <v>0.9923504121757925</v>
       </c>
       <c r="M13">
-        <v>0.9943287659223076</v>
+        <v>0.9644580557521264</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9191403110875501</v>
+        <v>0.8039439999999991</v>
       </c>
       <c r="D14">
-        <v>1.060380223990361</v>
+        <v>0.4209960000000003</v>
       </c>
       <c r="E14">
-        <v>1.00861947176323</v>
+        <v>1.293879999999999</v>
       </c>
       <c r="F14">
-        <v>0.9191403110875501</v>
+        <v>0.8039439999999991</v>
       </c>
       <c r="G14">
-        <v>1.022333406840271</v>
+        <v>0.5486320000000005</v>
       </c>
       <c r="H14">
-        <v>1.013690995402253</v>
+        <v>2.065675999999999</v>
       </c>
       <c r="I14">
-        <v>0.9826149833148545</v>
+        <v>1.201939999999998</v>
       </c>
       <c r="J14">
-        <v>1.060380223990361</v>
+        <v>0.4209960000000003</v>
       </c>
       <c r="K14">
-        <v>1.034499847876796</v>
+        <v>0.8574379999999995</v>
       </c>
       <c r="L14">
-        <v>0.976820079482173</v>
+        <v>0.8306909999999993</v>
       </c>
       <c r="M14">
-        <v>1.001129898733087</v>
+        <v>1.055844666666666</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9724300142247012</v>
+        <v>0.65</v>
       </c>
       <c r="D15">
-        <v>1.163659400803345</v>
+        <v>0.1</v>
       </c>
       <c r="E15">
-        <v>0.949661544349785</v>
+        <v>1.5</v>
       </c>
       <c r="F15">
-        <v>0.9724300142247012</v>
+        <v>0.65</v>
       </c>
       <c r="G15">
-        <v>1.08407045929631</v>
+        <v>0.2195875</v>
       </c>
       <c r="H15">
-        <v>0.8719854711094791</v>
+        <v>2.91</v>
       </c>
       <c r="I15">
-        <v>0.9506252903884476</v>
+        <v>1.35</v>
       </c>
       <c r="J15">
-        <v>1.163659400803345</v>
+        <v>0.1</v>
       </c>
       <c r="K15">
-        <v>1.056660472576565</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>1.014545243400633</v>
+        <v>0.725</v>
       </c>
       <c r="M15">
-        <v>0.9987386966953444</v>
+        <v>1.121597916666667</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.18355117195812</v>
+        <v>0.8045109870592011</v>
       </c>
       <c r="D16">
-        <v>0.5960752793557353</v>
+        <v>0.4685303427072001</v>
       </c>
       <c r="E16">
-        <v>1.047915988402299</v>
+        <v>1.2889961391104</v>
       </c>
       <c r="F16">
-        <v>1.18355117195812</v>
+        <v>0.8045109870592011</v>
       </c>
       <c r="G16">
-        <v>0.7931908076294506</v>
+        <v>0.5439500617728007</v>
       </c>
       <c r="H16">
-        <v>1.124909215325272</v>
+        <v>2.089979913420804</v>
       </c>
       <c r="I16">
-        <v>1.092202312283082</v>
+        <v>1.197365059788797</v>
       </c>
       <c r="J16">
-        <v>0.5960752793557353</v>
+        <v>0.4685303427072001</v>
       </c>
       <c r="K16">
-        <v>0.8219956338790171</v>
+        <v>0.8787632409088</v>
       </c>
       <c r="L16">
-        <v>1.002773402918569</v>
+        <v>0.8416371139840005</v>
       </c>
       <c r="M16">
-        <v>0.9729741291589932</v>
+        <v>1.065555417309867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9949238975122726</v>
+      </c>
+      <c r="D17">
+        <v>0.9949169638402917</v>
+      </c>
+      <c r="E17">
+        <v>0.9943649668699153</v>
+      </c>
+      <c r="F17">
+        <v>0.9949238975122726</v>
+      </c>
+      <c r="G17">
+        <v>0.9916734764235375</v>
+      </c>
+      <c r="H17">
+        <v>0.9951561430000584</v>
+      </c>
+      <c r="I17">
+        <v>0.99493714788777</v>
+      </c>
+      <c r="J17">
+        <v>0.9949169638402917</v>
+      </c>
+      <c r="K17">
+        <v>0.9946409653551035</v>
+      </c>
+      <c r="L17">
+        <v>0.9947824314336881</v>
+      </c>
+      <c r="M17">
+        <v>0.9943287659223076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9191403110875501</v>
+      </c>
+      <c r="D18">
+        <v>1.060380223990361</v>
+      </c>
+      <c r="E18">
+        <v>1.00861947176323</v>
+      </c>
+      <c r="F18">
+        <v>0.9191403110875501</v>
+      </c>
+      <c r="G18">
+        <v>1.022333406840271</v>
+      </c>
+      <c r="H18">
+        <v>1.013690995402253</v>
+      </c>
+      <c r="I18">
+        <v>0.9826149833148545</v>
+      </c>
+      <c r="J18">
+        <v>1.060380223990361</v>
+      </c>
+      <c r="K18">
+        <v>1.034499847876796</v>
+      </c>
+      <c r="L18">
+        <v>0.976820079482173</v>
+      </c>
+      <c r="M18">
+        <v>1.001129898733087</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9724300142247012</v>
+      </c>
+      <c r="D19">
+        <v>1.163659400803345</v>
+      </c>
+      <c r="E19">
+        <v>0.949661544349785</v>
+      </c>
+      <c r="F19">
+        <v>0.9724300142247012</v>
+      </c>
+      <c r="G19">
+        <v>1.08407045929631</v>
+      </c>
+      <c r="H19">
+        <v>0.8719854711094791</v>
+      </c>
+      <c r="I19">
+        <v>0.9506252903884476</v>
+      </c>
+      <c r="J19">
+        <v>1.163659400803345</v>
+      </c>
+      <c r="K19">
+        <v>1.056660472576565</v>
+      </c>
+      <c r="L19">
+        <v>1.014545243400633</v>
+      </c>
+      <c r="M19">
+        <v>0.9987386966953444</v>
       </c>
     </row>
   </sheetData>
